--- a/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FISHBIO/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0ACBEB0-18A8-F541-8F21-5128375D7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA319FF-C7A7-2843-8CAA-79856057EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11780" yWindow="-2380" windowWidth="11140" windowHeight="17500" tabRatio="834" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="834" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="attribute" sheetId="9" r:id="rId11"/>
     <sheet name="code_definitions" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
   <si>
     <t>first_name</t>
   </si>
@@ -242,60 +242,6 @@
     <t>FISHBIO Weir_Operations Log</t>
   </si>
   <si>
-    <t>Sample Date</t>
-  </si>
-  <si>
-    <t>Sample Time</t>
-  </si>
-  <si>
-    <t>Water Temperature</t>
-  </si>
-  <si>
-    <t># of Submerged Panels</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Stream Gauge</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
-    <t>Battery Voltage</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen</t>
-  </si>
-  <si>
-    <t>Velocity Upstream</t>
-  </si>
-  <si>
-    <t>Velocity Downstream</t>
-  </si>
-  <si>
-    <t>Conductivity</t>
-  </si>
-  <si>
-    <t>Solar Voltage</t>
-  </si>
-  <si>
-    <t>Fyke Closed</t>
-  </si>
-  <si>
-    <t>Fyke Open</t>
-  </si>
-  <si>
-    <t>Downstream Livebox Installed (Y/N)</t>
-  </si>
-  <si>
-    <t>Vaki (Y/N)</t>
-  </si>
-  <si>
-    <t>Barrels (Y/N)</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -383,16 +329,109 @@
     <t>Raining</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>Station identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text </t>
+  </si>
+  <si>
+    <t>sample_date</t>
+  </si>
+  <si>
+    <t>sample_time</t>
+  </si>
+  <si>
+    <t>water_temperature</t>
+  </si>
+  <si>
+    <t>number_of_submerged_panels</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>reset_restart_comp</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>stream_gauge</t>
+  </si>
+  <si>
+    <t>turbidity</t>
+  </si>
+  <si>
+    <t>battery_voltage</t>
+  </si>
+  <si>
+    <t>dissolved_oxygen</t>
+  </si>
+  <si>
+    <t>veolocity_upstream</t>
+  </si>
+  <si>
+    <t>veolocity_downstream</t>
+  </si>
+  <si>
+    <t>conductivity</t>
+  </si>
+  <si>
+    <t>solar_voltage</t>
+  </si>
+  <si>
+    <t>fyke_closed</t>
+  </si>
+  <si>
+    <t>fyke_open</t>
+  </si>
+  <si>
+    <t>downstream_livebox_installed_y_n</t>
+  </si>
+  <si>
+    <t>vaki_y_n</t>
+  </si>
+  <si>
+    <t>barrels_y_n</t>
+  </si>
+  <si>
+    <t>crew_initials</t>
+  </si>
+  <si>
+    <t>comments1</t>
+  </si>
+  <si>
+    <t>trap_closed</t>
+  </si>
+  <si>
+    <t>trap_open</t>
+  </si>
+  <si>
+    <t>condition_code</t>
+  </si>
+  <si>
+    <t>trapping</t>
+  </si>
+  <si>
+    <t>TODO - allNA</t>
+  </si>
+  <si>
+    <t>enumerated</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -437,7 +476,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +486,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -487,9 +532,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,15 +1037,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMH19"/>
+  <dimension ref="A1:AMH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A19"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" style="3"/>
+    <col min="1" max="2" width="19.6640625" style="14"/>
     <col min="3" max="3" width="13.1640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
@@ -1005,10 +1062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -1049,31 +1106,25 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>63</v>
@@ -1081,259 +1132,401 @@
       <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>87</v>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="7">
+        <v>44447</v>
+      </c>
+      <c r="N3" s="7">
+        <v>44704</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0.98958333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>96</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>71</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>98</v>
+      <c r="A13" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M24" s="18">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0.99652777777777779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 D1:D1020" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1022" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9 F1:F1020" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1022" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1020 A10 G1:G3" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1022 G1:G4" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1020 A12 I1:I3" xr:uid="{00000000-0002-0000-0800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1022 I1:I4" xr:uid="{00000000-0002-0000-0800-000002000000}">
       <formula1>"natural,whole,interger,real"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1345,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1371,123 +1564,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>83</v>
+        <v>98</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>84</v>
+        <v>97</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA319FF-C7A7-2843-8CAA-79856057EF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6058A5C-6773-6B46-850D-FE2CD8CB5DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="834" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="834" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="attribute" sheetId="9" r:id="rId11"/>
     <sheet name="code_definitions" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMH27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,6 +1184,12 @@
       <c r="F5" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="M5" s="3">
+        <v>45</v>
+      </c>
+      <c r="N5" s="3">
+        <v>65.400000000000006</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
@@ -1246,6 +1252,12 @@
       <c r="F9" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="M9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="3">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
@@ -1260,6 +1272,12 @@
       <c r="F10" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="M10" s="3">
+        <v>0.41</v>
+      </c>
+      <c r="N10" s="3">
+        <v>105</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
@@ -1275,6 +1293,12 @@
         <v>71</v>
       </c>
       <c r="H11" s="8"/>
+      <c r="M11" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="N11" s="3">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -1289,6 +1313,12 @@
       <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="M12" s="3">
+        <v>8.59</v>
+      </c>
+      <c r="N12" s="3">
+        <v>12.7</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -1303,6 +1333,12 @@
       <c r="F13" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="M13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -1317,6 +1353,12 @@
       <c r="F14" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
@@ -1331,6 +1373,12 @@
       <c r="F15" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="M15" s="3">
+        <v>35.5</v>
+      </c>
+      <c r="N15" s="3">
+        <v>163.5</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
@@ -1343,7 +1391,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -1540,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6058A5C-6773-6B46-850D-FE2CD8CB5DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9169C1ED-F4E4-CA4B-9D06-7B1EC4F2DD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="834" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33100" yWindow="1380" windowWidth="28240" windowHeight="18960" tabRatio="834" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
   <si>
     <t>first_name</t>
   </si>
@@ -395,15 +395,6 @@
     <t>fyke_open</t>
   </si>
   <si>
-    <t>downstream_livebox_installed_y_n</t>
-  </si>
-  <si>
-    <t>vaki_y_n</t>
-  </si>
-  <si>
-    <t>barrels_y_n</t>
-  </si>
-  <si>
     <t>crew_initials</t>
   </si>
   <si>
@@ -416,22 +407,67 @@
     <t>trap_open</t>
   </si>
   <si>
-    <t>condition_code</t>
-  </si>
-  <si>
     <t>trapping</t>
   </si>
   <si>
-    <t>TODO - allNA</t>
-  </si>
-  <si>
     <t>enumerated</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>The sampling crew initials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments about sampling </t>
+  </si>
+  <si>
+    <t>downstream_livebox_installed</t>
+  </si>
+  <si>
+    <t>vaki</t>
+  </si>
+  <si>
+    <t>barrels</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>fahrenheit</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>milligramsPerLiter</t>
+  </si>
+  <si>
+    <t>feetPerSecond</t>
+  </si>
+  <si>
+    <t>microsiemensPerCentimeter</t>
+  </si>
+  <si>
+    <t>panels</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>foot</t>
+  </si>
+  <si>
+    <t>volt</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -509,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -547,6 +583,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMH27"/>
+  <dimension ref="A1:AMH26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1050,8 +1089,8 @@
     <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" style="12" customWidth="1"/>
     <col min="11" max="11" width="16" style="3" customWidth="1"/>
@@ -1179,10 +1218,19 @@
         <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="M5" s="3">
         <v>45</v>
@@ -1204,6 +1252,18 @@
       <c r="F6" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="K6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
@@ -1213,11 +1273,20 @@
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="M7" s="3">
         <v>0</v>
       </c>
@@ -1225,7 +1294,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>106</v>
       </c>
@@ -1236,7 +1305,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
@@ -1247,10 +1316,19 @@
         <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="M9" s="3">
         <v>0.8</v>
@@ -1267,10 +1345,19 @@
         <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="M10" s="3">
         <v>0.41</v>
@@ -1287,12 +1374,20 @@
         <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="G11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="M11" s="3">
         <v>1.9</v>
       </c>
@@ -1308,10 +1403,19 @@
         <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="M12" s="3">
         <v>8.59</v>
@@ -1328,10 +1432,19 @@
         <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="M13" s="3">
         <v>0.3</v>
@@ -1348,10 +1461,19 @@
         <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1368,10 +1490,19 @@
         <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>71</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="M15" s="3">
         <v>35.5</v>
@@ -1407,6 +1538,18 @@
       <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="K17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0.97916666666666663</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
@@ -1421,10 +1564,22 @@
       <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="K18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0.15625</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0.98958333333333337</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>84</v>
@@ -1433,12 +1588,12 @@
         <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>85</v>
@@ -1447,12 +1602,12 @@
         <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>86</v>
@@ -1461,15 +1616,15 @@
         <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>65</v>
@@ -1478,12 +1633,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>65</v>
@@ -1494,7 +1649,7 @@
     </row>
     <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>108</v>
@@ -1505,6 +1660,12 @@
       <c r="F24" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="K24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="M24" s="18">
         <v>3.125E-2</v>
       </c>
@@ -1514,7 +1675,7 @@
     </row>
     <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>108</v>
@@ -1525,6 +1686,12 @@
       <c r="F25" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="K25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="M25" s="18">
         <v>0</v>
       </c>
@@ -1532,51 +1699,40 @@
         <v>0.99652777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1022" xr:uid="{00000000-0002-0000-0800-000000000000}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G4 G7:G1021" xr:uid="{00000000-0002-0000-0800-000003000000}">
+      <formula1>"ratio,interval"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I4 I8:I1021" xr:uid="{00000000-0002-0000-0800-000002000000}">
+      <formula1>"natural,whole,interger,real"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1021" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1022" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G1022 G1:G4" xr:uid="{00000000-0002-0000-0800-000003000000}">
-      <formula1>"ratio,interval"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I1022 I1:I4" xr:uid="{00000000-0002-0000-0800-000002000000}">
-      <formula1>"natural,whole,interger,real"</formula1>
-      <formula2>0</formula2>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7" xr:uid="{089AD0AC-6A66-6541-BA1B-BAB3CCF9EC6B}">
+      <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1588,8 +1744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,79 +1823,79 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
         <v>98</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>97</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1750,7 +1906,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9169C1ED-F4E4-CA4B-9D06-7B1EC4F2DD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F77CE-1D9C-F14F-A720-3831F3C63CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33100" yWindow="1380" windowWidth="28240" windowHeight="18960" tabRatio="834" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33100" yWindow="940" windowWidth="28240" windowHeight="18960" tabRatio="834" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="attribute" sheetId="9" r:id="rId11"/>
     <sheet name="code_definitions" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="147">
   <si>
     <t>first_name</t>
   </si>
@@ -299,30 +299,15 @@
     <t>Barrels installed on Weir for Additional Floatation</t>
   </si>
   <si>
-    <t>CLR</t>
-  </si>
-  <si>
     <t>Clear</t>
   </si>
   <si>
-    <t>CLD</t>
-  </si>
-  <si>
     <t>Cloudy</t>
   </si>
   <si>
-    <t>NIT</t>
-  </si>
-  <si>
     <t>Night</t>
   </si>
   <si>
-    <t>RAN</t>
-  </si>
-  <si>
-    <t>FOG</t>
-  </si>
-  <si>
     <t>Foggy</t>
   </si>
   <si>
@@ -362,9 +347,6 @@
     <t>reset_restart_comp</t>
   </si>
   <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>stream_gauge</t>
   </si>
   <si>
@@ -468,6 +450,33 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time of computer reset/restart. The computer is rebooted after data download during most weir checks to clear the cache and prevent malfunction. </t>
+  </si>
+  <si>
+    <t>Time the trap door was closed, meaning the weir is actively trapping</t>
+  </si>
+  <si>
+    <t>Time the trap door was open, meaming the volitional passage past the weir was possible (only camera monitoring)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicator of trap operation </t>
+  </si>
+  <si>
+    <t>fog</t>
+  </si>
+  <si>
+    <t>ran</t>
+  </si>
+  <si>
+    <t>nit</t>
+  </si>
+  <si>
+    <t>cld</t>
+  </si>
+  <si>
+    <t>clr</t>
   </si>
 </sst>
 </file>
@@ -512,7 +521,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,12 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -579,14 +582,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1076,15 +1082,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMH26"/>
+  <dimension ref="A1:AMH27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" style="14"/>
+    <col min="1" max="1" width="19.6640625" style="14"/>
+    <col min="2" max="2" width="29" style="14" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
@@ -1146,21 +1153,21 @@
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>62</v>
@@ -1186,7 +1193,7 @@
     </row>
     <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>68</v>
@@ -1203,34 +1210,34 @@
       <c r="L4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <v>0</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>0.98958333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M5" s="3">
         <v>45</v>
@@ -1239,12 +1246,12 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>107</v>
+    <row r="6" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>63</v>
@@ -1258,34 +1265,34 @@
       <c r="L6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>0</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -1296,7 +1303,7 @@
     </row>
     <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>73</v>
@@ -1305,30 +1312,30 @@
         <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M9" s="3">
         <v>0.8</v>
@@ -1339,25 +1346,25 @@
     </row>
     <row r="10" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="M10" s="3">
         <v>0.41</v>
@@ -1366,27 +1373,27 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M11" s="3">
         <v>1.9</v>
@@ -1395,27 +1402,27 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M12" s="3">
         <v>8.59</v>
@@ -1424,27 +1431,27 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M13" s="3">
         <v>0.3</v>
@@ -1453,27 +1460,27 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1482,27 +1489,27 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>136</v>
-      </c>
       <c r="I15" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M15" s="3">
         <v>35.5</v>
@@ -1513,7 +1520,7 @@
     </row>
     <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>81</v>
@@ -1527,7 +1534,7 @@
     </row>
     <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>82</v>
@@ -1544,16 +1551,16 @@
       <c r="L17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="17">
         <v>0.14583333333333334</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="17">
         <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>83</v>
@@ -1570,16 +1577,16 @@
       <c r="L18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M18" s="17">
         <v>0.15625</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="17">
         <v>0.98958333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>84</v>
@@ -1588,12 +1595,12 @@
         <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>85</v>
@@ -1602,12 +1609,12 @@
         <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>86</v>
@@ -1616,15 +1623,15 @@
         <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>65</v>
@@ -1633,12 +1640,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>65</v>
@@ -1647,12 +1654,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>121</v>
+    <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>63</v>
@@ -1666,19 +1673,19 @@
       <c r="L24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="17">
         <v>3.125E-2</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="17">
         <v>0.84375</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>122</v>
+    <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>63</v>
@@ -1692,26 +1699,29 @@
       <c r="L25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="17">
         <v>0</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="17">
         <v>0.99652777777777779</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>123</v>
+      <c r="A26" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1745,7 +1755,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1768,145 +1778,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s">
         <v>87</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
+++ b/data-raw/FISHBIO_submission/FISHBIO_Weir_Operations_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maddeerubenson/Documents/git/CVPIA/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/fishbio-stanislaus-o.mykiss/data-raw/FISHBIO_submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489F77CE-1D9C-F14F-A720-3831F3C63CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38274E20-3F2F-9845-8AFA-C15A2EE64045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33100" yWindow="940" windowWidth="28240" windowHeight="18960" tabRatio="834" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" tabRatio="834" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -359,12 +359,6 @@
     <t>dissolved_oxygen</t>
   </si>
   <si>
-    <t>veolocity_upstream</t>
-  </si>
-  <si>
-    <t>veolocity_downstream</t>
-  </si>
-  <si>
     <t>conductivity</t>
   </si>
   <si>
@@ -477,6 +471,12 @@
   </si>
   <si>
     <t>clr</t>
+  </si>
+  <si>
+    <t>velocity_upstream</t>
+  </si>
+  <si>
+    <t>velocity_downstream</t>
   </si>
 </sst>
 </file>
@@ -548,33 +548,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -582,17 +573,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -969,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1082,24 +1067,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMH27"/>
+  <dimension ref="A1:AMH26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="14"/>
-    <col min="2" max="2" width="29" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="10"/>
+    <col min="2" max="2" width="29" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="9" customWidth="1"/>
     <col min="4" max="4" width="17.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="9" customWidth="1"/>
     <col min="11" max="11" width="16" style="3" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="3" customWidth="1"/>
     <col min="13" max="14" width="9.1640625" style="3" customWidth="1"/>
@@ -1108,13 +1093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1135,7 +1120,7 @@
       <c r="I1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="9" t="s">
         <v>47</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1152,10 +1137,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1166,10 +1151,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1184,18 +1169,18 @@
       <c r="L3" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>44447</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <v>44704</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1204,40 +1189,40 @@
       <c r="F4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="12">
         <v>0</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="12">
         <v>0.98958333333333337</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="I5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M5" s="3">
         <v>45</v>
@@ -1247,11 +1232,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>138</v>
+      <c r="B6" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>63</v>
@@ -1259,40 +1244,40 @@
       <c r="F6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="12">
         <v>0</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -1302,40 +1287,40 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>73</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M9" s="3">
         <v>0.8</v>
@@ -1345,26 +1330,26 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M10" s="3">
         <v>0.41</v>
@@ -1374,26 +1359,26 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M11" s="3">
         <v>1.9</v>
@@ -1403,26 +1388,26 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M12" s="3">
         <v>8.59</v>
@@ -1432,26 +1417,26 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M13" s="3">
         <v>0.3</v>
@@ -1461,26 +1446,26 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1490,26 +1475,26 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M15" s="3">
         <v>35.5</v>
@@ -1519,10 +1504,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>81</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1533,10 +1518,10 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="14" t="s">
+      <c r="A17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -1545,24 +1530,24 @@
       <c r="F17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="12">
         <v>0.14583333333333334</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="12">
         <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="14" t="s">
+      <c r="A18" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -1571,67 +1556,67 @@
       <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="12">
         <v>0.15625</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="12">
         <v>0.98958333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>119</v>
+      <c r="A22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>65</v>
@@ -1641,11 +1626,11 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>120</v>
+      <c r="A23" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>65</v>
@@ -1655,11 +1640,11 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>139</v>
+      <c r="A24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>63</v>
@@ -1667,25 +1652,25 @@
       <c r="F24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="K24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="12">
         <v>3.125E-2</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="12">
         <v>0.84375</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>140</v>
+      <c r="A25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>63</v>
@@ -1693,35 +1678,32 @@
       <c r="F25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M25" s="12">
         <v>0</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="12">
         <v>0.99652777777777779</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>141</v>
+      <c r="A26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -1754,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1778,7 +1760,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -1789,7 +1771,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -1800,7 +1782,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
         <v>89</v>
@@ -1811,7 +1793,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
@@ -1822,7 +1804,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
@@ -1833,90 +1815,90 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>121</v>
+      <c r="C7" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>121</v>
+      <c r="C8" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>122</v>
+      <c r="C9" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>122</v>
+      <c r="C10" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
         <v>92</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>123</v>
+      <c r="C11" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>123</v>
+      <c r="C12" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>117</v>
+      <c r="C13" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>117</v>
+      <c r="C14" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +1919,7 @@
   <cols>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1956,7 +1938,7 @@
       <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2022,14 +2004,14 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2094,9 +2076,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9" style="9"/>
+    <col min="3" max="3" width="9" style="8"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
+    <col min="6" max="6" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2106,7 +2088,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2115,7 +2097,7 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2141,40 +2123,40 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="9"/>
-    <col min="6" max="6" width="17.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="8"/>
+    <col min="6" max="6" width="17.33203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2269,27 +2251,27 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G4" s="7"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="7"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
